--- a/data/20221031-185916_F732C_M69.xlsx
+++ b/data/20221031-185916_F732C_M69.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2091,6 +2091,556 @@
         <v>22.2</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>44865.80204042507</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2.654685e-05</v>
+      </c>
+      <c r="C152" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>44865.8021124067</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2.64702e-05</v>
+      </c>
+      <c r="C153" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>44865.80218550019</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2.64638e-05</v>
+      </c>
+      <c r="C154" t="n">
+        <v>22.19</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>44865.80225786587</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2.650834999999999e-05</v>
+      </c>
+      <c r="C155" t="n">
+        <v>22.19</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>44865.80233062315</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2.63901e-05</v>
+      </c>
+      <c r="C156" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>44865.80240301735</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2.64338e-05</v>
+      </c>
+      <c r="C157" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>44865.80247580589</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2.647935000000001e-05</v>
+      </c>
+      <c r="C158" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>44865.80254795514</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2.653805e-05</v>
+      </c>
+      <c r="C159" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>44865.80262070944</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2.661e-05</v>
+      </c>
+      <c r="C160" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>44865.80269342064</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2.64775e-05</v>
+      </c>
+      <c r="C161" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>44865.80276588449</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2.642195e-05</v>
+      </c>
+      <c r="C162" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>44865.80283778212</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2.64145e-05</v>
+      </c>
+      <c r="C163" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>44865.80291088492</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2.65378e-05</v>
+      </c>
+      <c r="C164" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>44865.8029836116</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2.64348e-05</v>
+      </c>
+      <c r="C165" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>44865.80305580451</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2.63746e-05</v>
+      </c>
+      <c r="C166" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>44865.80312857149</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2.650265e-05</v>
+      </c>
+      <c r="C167" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>44865.80320112573</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2.645575e-05</v>
+      </c>
+      <c r="C168" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>44865.80327376181</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2.65305e-05</v>
+      </c>
+      <c r="C169" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>44865.80334578465</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2.639385e-05</v>
+      </c>
+      <c r="C170" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>44865.80341926614</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2.62837e-05</v>
+      </c>
+      <c r="C171" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>44865.80349078748</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2.64929e-05</v>
+      </c>
+      <c r="C172" t="n">
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>44865.80356393598</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2.651225e-05</v>
+      </c>
+      <c r="C173" t="n">
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>44865.80363624656</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2.6655e-05</v>
+      </c>
+      <c r="C174" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>44865.80370902807</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2.672065e-05</v>
+      </c>
+      <c r="C175" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>44865.80378143444</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2.67361e-05</v>
+      </c>
+      <c r="C176" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>44865.80385414403</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2.664765e-05</v>
+      </c>
+      <c r="C177" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>44865.80392670311</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2.662675e-05</v>
+      </c>
+      <c r="C178" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>44865.80399920258</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2.665965e-05</v>
+      </c>
+      <c r="C179" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>44865.80407172969</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2.67846e-05</v>
+      </c>
+      <c r="C180" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>44865.80414435975</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2.663865e-05</v>
+      </c>
+      <c r="C181" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>44865.80421674195</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2.68286e-05</v>
+      </c>
+      <c r="C182" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>44865.80428938817</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2.686625e-05</v>
+      </c>
+      <c r="C183" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>44865.8043620195</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2.67245e-05</v>
+      </c>
+      <c r="C184" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>44865.80443450715</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2.67976e-05</v>
+      </c>
+      <c r="C185" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>44865.80450702908</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2.66893e-05</v>
+      </c>
+      <c r="C186" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>44865.80457967657</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2.66183e-05</v>
+      </c>
+      <c r="C187" t="n">
+        <v>22.19</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>44865.80465229411</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2.67802e-05</v>
+      </c>
+      <c r="C188" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>44865.80472478021</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2.67589e-05</v>
+      </c>
+      <c r="C189" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>44865.80479725779</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2.680415e-05</v>
+      </c>
+      <c r="C190" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>44865.80486980129</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2.673305e-05</v>
+      </c>
+      <c r="C191" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>44865.80494250007</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2.689555e-05</v>
+      </c>
+      <c r="C192" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>44865.80501497722</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2.68166e-05</v>
+      </c>
+      <c r="C193" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>44865.80508754545</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2.684505e-05</v>
+      </c>
+      <c r="C194" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>44865.80516001731</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2.677645e-05</v>
+      </c>
+      <c r="C195" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>44865.80523267757</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2.66097e-05</v>
+      </c>
+      <c r="C196" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>44865.80530489959</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2.6814e-05</v>
+      </c>
+      <c r="C197" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>44865.80537772156</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2.69059e-05</v>
+      </c>
+      <c r="C198" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>44865.80545023725</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2.686675e-05</v>
+      </c>
+      <c r="C199" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>44865.80552277053</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2.685765e-05</v>
+      </c>
+      <c r="C200" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>44865.80559536457</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2.68041e-05</v>
+      </c>
+      <c r="C201" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
